--- a/public/backend/upload.xlsx
+++ b/public/backend/upload.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B40675E6-20B9-4723-8655-2FBD4039166E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujing/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5927A295-2424-BF42-B6D6-F9C45BBB4A9D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>skuId</t>
   </si>
@@ -41,6 +46,14 @@
   </si>
   <si>
     <t>京选下架时间</t>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://coupon.jd.com/ilink/couponActiveFront/front_index.action?key=0abdf54ff51d444db0bce5c2c651ae40&amp;roleId=14520712&amp;to=517lppz.jd.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -48,9 +61,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +76,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -84,27 +114,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -406,25 +443,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A2" sqref="A2:G13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="142.625" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="142.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="65.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,13 +486,37 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>31646107278</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>15.8</v>
+      </c>
+      <c r="D2">
+        <v>13.8</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C4E4C328-AA52-4E43-A1BB-998B6E3EFE9B}"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -465,10 +526,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -478,10 +540,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/public/backend/upload.xlsx
+++ b/public/backend/upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujing/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5927A295-2424-BF42-B6D6-F9C45BBB4A9D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1548CE23-59FE-1347-BC9F-25CB3C127311}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>skuId</t>
   </si>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>排序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://coupon.jd.com/ilink/couponActiveFront/front_index.action?key=0abdf54ff51d444db0bce5c2c651ae40&amp;roleId=14520712&amp;to=517lppz.jd.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +442,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -491,21 +487,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2">
-        <v>31646107278</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>15.8</v>
-      </c>
-      <c r="D2">
-        <v>13.8</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
+      <c r="B2" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -514,9 +496,6 @@
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C4E4C328-AA52-4E43-A1BB-998B6E3EFE9B}"/>
-  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
